--- a/PROYECTO CP/Revision PPS-IPS/IPS VUCEPERPAM-1454 Visualizar la Ficha de Inspección Sanitaria_v2.0.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/IPS VUCEPERPAM-1454 Visualizar la Ficha de Inspección Sanitaria_v2.0.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\VUCE Diseños\IPPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{3258C403-14FE-47BA-A207-17BAE0D0D0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14E2BC92-15AB-430E-9A63-D8928BD150B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FE21DC-6A02-48D3-95AA-6F59B6B8FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="19365" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="31" r:id="rId1"/>
-    <sheet name="CP06" sheetId="5" r:id="rId2"/>
-    <sheet name="CP07" sheetId="32" r:id="rId3"/>
-    <sheet name="CP08" sheetId="33" r:id="rId4"/>
-    <sheet name="CP09" sheetId="34" r:id="rId5"/>
+    <sheet name="CP05" sheetId="5" r:id="rId2"/>
+    <sheet name="CP06" sheetId="32" r:id="rId3"/>
+    <sheet name="CP07" sheetId="33" r:id="rId4"/>
+    <sheet name="CP08" sheetId="34" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATOS!$B$3:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATOS!$B$3:$H$11</definedName>
     <definedName name="Estado_CP">#REF!</definedName>
     <definedName name="Metodos_Pruebas">#REF!</definedName>
     <definedName name="Requerimientos">#REF!</definedName>
@@ -54,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>CASOS DE PRUEBA</t>
   </si>
@@ -120,9 +113,6 @@
     <t>CP08</t>
   </si>
   <si>
-    <t>CP09</t>
-  </si>
-  <si>
     <t>CASO</t>
   </si>
   <si>
@@ -194,13 +184,25 @@
   </si>
   <si>
     <t xml:space="preserve">Se muestre el menu VUCE 2.0 </t>
+  </si>
+  <si>
+    <t>Navegador: Edge
+Rol: CP.ENTIDAD.INSPECTOR.SANITARIO, CP.ENTIDAD.EVALUADOR O CP.ENTIDAD.AUTORIZADOR</t>
+  </si>
+  <si>
+    <t>Navegador: Firefox
+Rol: CP.ENTIDAD.INSPECTOR.SANITARIO, CP.ENTIDAD.EVALUADOR O CP.ENTIDAD.AUTORIZADOR</t>
+  </si>
+  <si>
+    <t>Navegador: Safari
+Rol: CP.ENTIDAD.INSPECTOR.SANITARIO, CP.ENTIDAD.EVALUADOR O CP.ENTIDAD.AUTORIZADOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,7 +330,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
@@ -349,9 +351,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,6 +367,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,75 +1314,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CP01"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CP02"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CP03"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CP04"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CP05"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1415,7 +1355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1521,7 +1461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1663,7 +1603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1671,13 +1611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAB0067-E7B8-4F57-BF43-5FDF3AB10D97}">
-  <dimension ref="B3:H12"/>
+  <dimension ref="B3:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
     <col min="2" max="2" width="25.85546875" style="6" customWidth="1"/>
@@ -1690,209 +1630,188 @@
     <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="5" customFormat="1">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="60.75">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="60.75">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="60.75">
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="60.75">
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="G9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="60.75">
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="G10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="60.75">
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="2:8" ht="60.75">
-      <c r="B10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="2:8" ht="60.75">
-      <c r="B11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="2:8" ht="60.75">
-      <c r="B12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="14"/>
+      <c r="H11" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1900,14 +1819,13 @@
     <hyperlink ref="F4" r:id="rId1" xr:uid="{243FA085-0B18-4BC5-9CBB-FCEDDDCEC0DE}"/>
     <hyperlink ref="B4" location="'CP01'!A1" display="CP01" xr:uid="{7BA7F057-6E8D-4FE2-84D6-5CDBBD344198}"/>
     <hyperlink ref="B5" location="'CP02'!A1" display="CP02" xr:uid="{0EBBF4CF-CF29-45C4-8EAA-E1E6F16804DC}"/>
-    <hyperlink ref="B6" location="'CP03'!A1" display="CP03" xr:uid="{F2789C4C-668B-42CD-BBEA-CAF6AB30CC3C}"/>
-    <hyperlink ref="B7" location="'CP04'!A1" display="CP04" xr:uid="{62DC6B65-73FB-4A4C-BC7A-17A7B61D47A1}"/>
-    <hyperlink ref="B8" location="'CP05'!A1" display="CP05" xr:uid="{D73500B3-46BC-4F26-A21C-1DCE7F39D110}"/>
-    <hyperlink ref="B9" location="'CP06'!A1" display="CP06" xr:uid="{4CD13C92-8B17-4797-8383-CDC7E2D452FB}"/>
-    <hyperlink ref="B10" location="'CP07'!A1" display="CP07" xr:uid="{E1D0F8EC-E423-4798-93CF-13D32CE99976}"/>
-    <hyperlink ref="B11" location="'CP08'!A1" display="CP08" xr:uid="{D0F53C72-BBFA-450D-8A73-2A9A5F10BE36}"/>
-    <hyperlink ref="B12" location="'CP09'!A1" display="CP09" xr:uid="{5302E6B0-FF6A-4E73-9036-E4E6A4D702C5}"/>
-    <hyperlink ref="F5:F12" r:id="rId2" display="https://landing-test.vuce.gob.pe/cp2/" xr:uid="{0CD6CFEA-9E32-43D5-91FD-745B12C9E71C}"/>
+    <hyperlink ref="F5:F11" r:id="rId2" display="https://landing-test.vuce.gob.pe/cp2/" xr:uid="{0CD6CFEA-9E32-43D5-91FD-745B12C9E71C}"/>
+    <hyperlink ref="B6" location="'CP01'!A1" display="CP01" xr:uid="{3034101F-BC6E-46C6-9FC3-89B81D6589D7}"/>
+    <hyperlink ref="B8" location="'CP05'!A1" display="CP05" xr:uid="{70502349-E032-47A4-BF46-98477C6AD91F}"/>
+    <hyperlink ref="B10" location="'CP07'!A1" display="CP07" xr:uid="{7E2CAEC5-8EFA-4778-BF76-CACDFE37D861}"/>
+    <hyperlink ref="B7" location="'CP02'!A1" display="CP02" xr:uid="{C2555D2E-2D34-4C28-8C4F-41E2D9277015}"/>
+    <hyperlink ref="B9" location="'CP06'!A1" display="CP06" xr:uid="{FFDCD7C1-21CB-4A31-9663-37160B82010E}"/>
+    <hyperlink ref="B11" location="'CP08'!A1" display="CP08" xr:uid="{502D8493-0C87-4FBB-9DC2-8FD862021219}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1919,136 +1837,136 @@
   <dimension ref="A2:K67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="B24" sqref="B10:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="C3" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="C6" s="7" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" t="s">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="2:9" ht="225" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="2:9" ht="225" customHeight="1"/>
-    <row r="14" spans="2:9">
-      <c r="B14" s="8" t="s">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="2:9" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="2:9" ht="204.75" customHeight="1">
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" ht="33" customHeight="1">
-      <c r="B16" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="199.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="199.5" customHeight="1"/>
-    <row r="20" spans="1:11">
-      <c r="B20" s="8" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="217.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" ht="217.5" customHeight="1"/>
-    <row r="24" spans="1:11">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>33</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
     </row>
   </sheetData>
@@ -2064,70 +1982,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975AF645-C560-4127-9812-EED7FFE11E13}">
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B10:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:2" ht="311.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="289.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="300.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="311.25" customHeight="1"/>
-    <row r="12" spans="1:2">
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="289.5" customHeight="1"/>
-    <row r="14" spans="1:2">
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="300.75" customHeight="1"/>
-    <row r="16" spans="1:2">
-      <c r="B16" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -2142,70 +2060,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54ECBBC-6C5E-4A91-BE98-F887106F0D49}">
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B10:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="311.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="289.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="300.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="311.25" customHeight="1"/>
-    <row r="12" spans="1:2">
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="289.5" customHeight="1"/>
-    <row r="14" spans="1:2">
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="300.75" customHeight="1"/>
-    <row r="16" spans="1:2">
-      <c r="B16" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -2220,70 +2138,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9244DB-FD8E-48C6-A745-C24E95AC4042}">
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="311.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="289.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="300.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="311.25" customHeight="1"/>
-    <row r="12" spans="1:2">
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="289.5" customHeight="1"/>
-    <row r="14" spans="1:2">
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="300.75" customHeight="1"/>
-    <row r="16" spans="1:2">
-      <c r="B16" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -2295,6 +2213,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -2555,35 +2494,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCF399C1-334B-433F-9DA8-33F7E4B5CC43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB81A6AA-6984-4760-B4AA-4F4EC12BED29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFFD2412-105E-4E14-B007-8ED9A8C59710}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFFD2412-105E-4E14-B007-8ED9A8C59710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB81A6AA-6984-4760-B4AA-4F4EC12BED29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCF399C1-334B-433F-9DA8-33F7E4B5CC43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>